--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="B1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,138 +436,38 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>ngram</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>F_i</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>ƒ</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>R</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>alpha</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>goodnes</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>in  the  jungle</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>21</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.5530489</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.7216382</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.99717</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>said  father  wolf</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.4538214</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.8122749</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.99669</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>of  the  jungle</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>23</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.5578936</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.5635313</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.9923999999999999</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>a  man's  cub</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>13</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.6774867</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.5162395</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.986</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>of  the  pack</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>12</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.7785259</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.7008034</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.99441</v>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>goodness</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:H1"/>
+  <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,2358 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>new_ngram</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1565</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.224327</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.8177569</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.2365941</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.9997</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>737</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.9015906</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.5529771</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.2453526</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.9996699999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>of</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>495</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.0537137</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.6935631</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.1038981</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.99977</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>entropy</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>294</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.0454504</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.6942903</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0924767</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.99996</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>260</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.1072578</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.6077920999999999</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.1369113</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.99808</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>216</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9908812</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.5360814</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.1424751</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.9853499999999999</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>213</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.1290233</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.559914</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.1420125</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.99756</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>193</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9857836</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.5478837</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.1178285</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.99632</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>161</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.845329</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.4128828</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.1926374</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.96772</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>140</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.0399689</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.7616114</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0461794</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.9993</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>that</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>112</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.9090954999999999</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.4635167</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.1454616</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.97589</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>as</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>84</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8082522</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.4090988</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.147549</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.9884500000000001</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>for</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>76</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8811523999999999</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.5758394999999999</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0729998</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.9996</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>heat</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>72</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8635347</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.7335082000000001</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.0357313</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.99992</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>an</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>70</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.7817429</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.5042588</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.08410629999999999</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.99805</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>displaystyle</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>70</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.1607281</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.7234296</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.0532999</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.99902</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>temperature</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>66</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.8860067</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.6156053</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.0630699</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.99931</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>18</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>by</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>62</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.8465163</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.3658455</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.1569418</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.99688</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>19</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>60</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.7738705</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.6757016</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.0405799</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.9995000000000001</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>20</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>from</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>55</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.7109472</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.5221152999999999</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.0801509</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.99861</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>21</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>thermodynamics</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>55</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.8748633</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.5442765000000001</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.07496410000000001</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.99924</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>22</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>be</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>55</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.7897558</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.6544598</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.0385199</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.99531</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>23</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>at</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>53</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.9109438</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.603833</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.062063</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.99956</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>24</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>52</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.0475098</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.6170865</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.0620388</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.99473</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>25</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>thermodynamic</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>52</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.7931511999999999</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.5796159</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.0614378</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.99527</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>26</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>which</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>50</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.7981956</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.4193638</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.1206014</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.99007</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>27</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>50</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1.3421688</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.7285598</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.0460597</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.9957</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>28</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>this</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>50</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.5723128</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.5423508</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0598702</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.99242</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>29</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>state</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>50</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.9036618</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.6234854</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.0569995</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.99875</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>30</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>or</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>47</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.8019998</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.6039962</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0523517</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.99829</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>31</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>47</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.8039136</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.6927991999999999</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.0348552</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.99966</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>32</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>change</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>44</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.8773307</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.6342495</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.0475627</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.99956</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>33</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>it</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>40</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.8580367</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.5253003000000001</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.06735289999999999</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.99965</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>34</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>has</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>39</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.7497459</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.683328</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.0309662</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.99814</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>35</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>are</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>37</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.6852914</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.5069631</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.06820420000000001</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.99151</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>36</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>with</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>35</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.7131502</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.3907358</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.1016312</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.9831299999999999</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>37</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>cycle</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>27</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1.0939488</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.8221879</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.018668</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.99937</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>38</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>its</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>27</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.7901689</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.4704</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.0753518</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.99716</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>39</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>26</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1.2722869</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.7814227</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.026327</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.99499</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>40</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>definition</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>26</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.7803779</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.5586133</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.0633301</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.99944</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>41</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>25</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1.4943001</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.4887858</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.1056747</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.9994499999999999</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>42</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>25</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2.0507876</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.6408785</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.1005579</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.99649</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>43</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>systems</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>25</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1.0218277</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.4412187</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.086926</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.99131</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>44</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>was</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>25</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.8905333</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.6153111999999999</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.0398629</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.99898</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>45</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>constant</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>25</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1.0012382</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.7457497</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.0238049</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.99934</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>46</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>24</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.4719153</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.6504951</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.0239477</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.99682</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>47</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>function</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>24</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.6619009</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.6972958</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.0247686</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.99862</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>48</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>states</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>24</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.7094721</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.5471096</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.0476669</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.99922</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>49</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>24</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.6396989</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.5166006</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.0481035</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.99535</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>50</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>equilibrium</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>24</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.6657634</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.4332777</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.0760754</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.99153</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>51</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>24</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.699446</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.616307</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.0414874</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.99777</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>52</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>any</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>22</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.5426307</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.4436429</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.0691765</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.98944</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>53</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>22</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1.3621965</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.6824972</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.0327361</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.99594</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>54</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>21</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.740617</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.5287622</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.0463197</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.9935</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>55</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>if</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>20</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.8144166</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.3091442</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.1303196</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.94925</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>56</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>gas</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>20</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1.0058753</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.6497826</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.0323229</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.99921</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>57</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>mechanics</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>18</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.5932609</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.5731189</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.033915</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.9981100000000001</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>58</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>reversible</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>18</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.9280111</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.6134857</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.0372697</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.99637</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>59</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>pressure</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>17</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.5888135</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.5341718</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.039823</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.99787</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>60</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>17</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1.2236935</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.6533395</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.0338422</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.99436</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>61</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>also</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>17</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.6252418</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.5745053</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.0280244</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.99923</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>62</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>volume</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>17</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.7940029</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.6066718</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.0291957</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.99956</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>63</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>been</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>17</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.8619794</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.5499676</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.0319166</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.9984</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>64</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>16</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.6872768</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.4604308</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.0540564</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.99708</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>65</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>more</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>16</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.5395936</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.4996872</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.0375437</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.99081</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>66</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>16</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.5827102</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.5992826999999999</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.025819</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.98772</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>67</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>have</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>15</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.7352625</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.5361214</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.0398756</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.97795</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>68</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>when</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>15</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.5498583</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.4314563</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.0561819</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.99703</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>69</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>disorder</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>15</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.8244508</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.7442879</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.019624</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.99569</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>70</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>theory</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>15</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.6794662</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.6835252000000001</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.022432</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.99929</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>71</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>equation</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>15</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.8109308</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.6965146</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.0179106</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.9980599999999999</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>72</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>possible</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>15</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.5665826</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.4715412</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.0477044</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.9896</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>73</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>between</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>15</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.6706153</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.5818665</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.0295723</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.99791</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>74</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>15</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.8392131</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.6825078999999999</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.0216499</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.99929</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>75</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>clausius</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>14</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.709609</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.6800119999999999</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.0194728</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.9992799999999999</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>76</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>some</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>14</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.5977382</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.6107224</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.023553</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.99958</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>77</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>over</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>13</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.5440241</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.5968995</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.0239849</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.99627</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>78</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>microstates</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>13</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.5813458</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.4275322</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.067052</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.97549</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>79</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>processes</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>13</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.5521898</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.5191481</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.036601</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.9962299999999999</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>80</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>same</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>12</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.7431633</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.5044057</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.0363951</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.99631</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>81</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>12</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.6873305</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.5943408</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.0228039</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.9991</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>82</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>universe</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>12</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.9088111</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.6891389999999999</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.0209442</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.99594</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>83</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>11</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.5861397</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.7850019</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.0146446</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.99817</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>84</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>particular</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>10</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.9295247</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.6232463</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.0305323</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.9947</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
